--- a/TestCase/NHOM6_TESTCASE - NGHIEP.xlsx
+++ b/TestCase/NHOM6_TESTCASE - NGHIEP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobile-Themes-Group-6\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -62,31 +62,281 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Create New Account</t>
-  </si>
-  <si>
-    <t>Submit button is enabled with labels</t>
-  </si>
-  <si>
-    <t>Click on fields and input text</t>
-  </si>
-  <si>
     <t>Feature Testing</t>
   </si>
   <si>
-    <t>Click on any fields and input text</t>
-  </si>
-  <si>
-    <t>Display cusor when users click, and show what users input on fields</t>
-  </si>
-  <si>
     <t>LOW</t>
+  </si>
+  <si>
+    <t>Chỉnh Sửa Bài Đăng</t>
+  </si>
+  <si>
+    <t>Màn hình đúng như thiết kế</t>
+  </si>
+  <si>
+    <t>Xác nhận các phần trong màn hình đúng như đã thiết kế</t>
+  </si>
+  <si>
+    <t>Đúng thiết kế, đúng màu, đúng kích thước, cỡ chữ</t>
+  </si>
+  <si>
+    <t>Nút Back</t>
+  </si>
+  <si>
+    <t>Trở về màn hình trước</t>
+  </si>
+  <si>
+    <t>Nút sắp xếp</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút back</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút sắp xếp</t>
+  </si>
+  <si>
+    <t>Danh sách các bài đăng được sắp xếp lại</t>
+  </si>
+  <si>
+    <t>Nút thêm tour</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút thêm tour</t>
+  </si>
+  <si>
+    <t>Chuyển qua màn hình thêm tour</t>
+  </si>
+  <si>
+    <t>Nhấn vào danh sach tour</t>
+  </si>
+  <si>
+    <t>Nhấn 1 lần vào 1 tour trong danh sách</t>
+  </si>
+  <si>
+    <t>Không phản hồi khi nhấn 1 lần</t>
+  </si>
+  <si>
+    <t>Nhấn nhiều lần vào danh sách tour</t>
+  </si>
+  <si>
+    <t>Nhấn nhiều lần vào 1 tour trong danh sách tour</t>
+  </si>
+  <si>
+    <t>Không có phản hồi khi nhấn nhiều lần</t>
+  </si>
+  <si>
+    <t>Nhấn giữ vào 1 tour trong danh sách</t>
+  </si>
+  <si>
+    <t>Nhấn và giữ vào 1 tour trong danh sách trong 3 - 5s</t>
+  </si>
+  <si>
+    <t>Hiện thị menu context, Chỉnh sửa hoặc Xóa</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút tim ở 1 tour trong danh sách</t>
+  </si>
+  <si>
+    <t>Không cho phép nhấp thực hiện ở màn hình chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Nút không thích</t>
+  </si>
+  <si>
+    <t>Nút tim</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút không thích ở 1 tour trong danh sách</t>
+  </si>
+  <si>
+    <t>Không cho phép thực hiện</t>
+  </si>
+  <si>
+    <t>Nút bình luận</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút bình luận ở 1 tour trong danh sách</t>
+  </si>
+  <si>
+    <t>Kiêm tra danh sách có hiện đúng</t>
+  </si>
+  <si>
+    <t>Xác nhận 1 tour có hiển thị đầy đủ thông tin(tên, giá tiền, thời gian, thích, không thích)</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Màn hình thêm tour</t>
+  </si>
+  <si>
+    <t>Nút thêm ảnh</t>
+  </si>
+  <si>
+    <t>Nhấn vào nút thêm ảnh</t>
+  </si>
+  <si>
+    <t>Xuất hiện menu lựa chọn chụp hoặc chọn từ thư viện</t>
+  </si>
+  <si>
+    <t>Menu lưa chọn</t>
+  </si>
+  <si>
+    <t>1. nhấn nút thêm ảnh
+2. Chọn máy ảnh</t>
+  </si>
+  <si>
+    <t>Chuyển qua màn hình chụp hình</t>
+  </si>
+  <si>
+    <t>Menu lựa chọn 2</t>
+  </si>
+  <si>
+    <t>1. Nhấp nút thêm ảnh
+2. Chọn thư viện</t>
+  </si>
+  <si>
+    <t>Truy cập vào thư viện ảnh của máy</t>
+  </si>
+  <si>
+    <t>Radio button</t>
+  </si>
+  <si>
+    <t>1. Chọn miền Nam
+2. Chọn miền Bắc</t>
+  </si>
+  <si>
+    <t>Ô giá tiền</t>
+  </si>
+  <si>
+    <t>Nhấn vào ô giá tiền</t>
+  </si>
+  <si>
+    <t>Xóa tất cả chữ trong textbox</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa giá tiền</t>
+  </si>
+  <si>
+    <t>1. Nhập giá tiền
+2. Nhập các trường còn lại
+3. Nhấn nút thêm tour</t>
+  </si>
+  <si>
+    <t>Thông báo thêm tour thành công</t>
+  </si>
+  <si>
+    <t>Không cho phép chữ trong giá tiền</t>
+  </si>
+  <si>
+    <t>1. Nhập giá tiền bằng chữ
+2. Nhập các trường còn lại
+3. Nhấn nút thêm tour</t>
+  </si>
+  <si>
+    <t>Thêm tour không thành công, thông báo chỉ cho phép nhập số trong giá tiền</t>
+  </si>
+  <si>
+    <t>Ô mô tả chi tiết tour</t>
+  </si>
+  <si>
+    <t>Nhấn vào ô mô tả chi tiết</t>
+  </si>
+  <si>
+    <t>Xóa tất cả các chữ trong ô</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết tour</t>
+  </si>
+  <si>
+    <t>1. Mô tả tour bằng 1 văn bản dài
+2. Nhấn nút thêm tour</t>
+  </si>
+  <si>
+    <t>Thêm tour thành công</t>
+  </si>
+  <si>
+    <t>Chỉ chọn miền Bắc</t>
+  </si>
+  <si>
+    <t>Cho phép Dán mô tả</t>
+  </si>
+  <si>
+    <t>1. Coppy Mô tả từ bên ngoài
+2. Nhán giữ trong ô mô tả
+3. Chọn dán mô tả</t>
+  </si>
+  <si>
+    <t>Dán mô tả thành công</t>
+  </si>
+  <si>
+    <t>Ký tự tối đa trong ô giá tiền</t>
+  </si>
+  <si>
+    <t>Không thể nhập thêm số thứ 13</t>
+  </si>
+  <si>
+    <t>1. Nhập giá tiền 13 ký tự</t>
+  </si>
+  <si>
+    <t>Ký tự tối thiểu trong ô giá tiền</t>
+  </si>
+  <si>
+    <t>1. Nhập 2 số trong
+2. Nhập tất cả các trường còn lại
+3. Nhấn nút thêm tour</t>
+  </si>
+  <si>
+    <t>Thêm không thành công, Hiển thị thông báo "Giá tiền phải lớn hơn 3 ký tự"</t>
+  </si>
+  <si>
+    <t>Trường địa chỉ</t>
+  </si>
+  <si>
+    <t>Nhấn vào ô địa chỉ</t>
+  </si>
+  <si>
+    <t>Ký tự tối đa trong ô địa chỉ</t>
+  </si>
+  <si>
+    <t>nhập địa chỉ tới 256 ký tự</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập tới ký tự 256</t>
+  </si>
+  <si>
+    <t>Xóa tour</t>
+  </si>
+  <si>
+    <t>1. Nhấn giữ vào 1 tour trong danh sách
+2. Chọn xóa tour</t>
+  </si>
+  <si>
+    <t>Xóa tour thành công và tải lại danh sach tour</t>
+  </si>
+  <si>
+    <t>Sửa tour</t>
+  </si>
+  <si>
+    <t>1. Nhấn giữ vào 1 tour trong danh sách
+2. Chọn Sửa tour</t>
+  </si>
+  <si>
+    <t>Chuyển sang màn hình chỉnh sửa chi tiết tour</t>
+  </si>
+  <si>
+    <t>Màn hình Sửa tour</t>
+  </si>
+  <si>
+    <t>1. Nhập giá tiền bằng chữ
+2. Nhập các trường còn lại
+3. Nhấn nút Sửa tour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -131,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,14 +400,8 @@
         <bgColor indexed="15"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="15"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -234,30 +478,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="59"/>
-      </right>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,21 +525,144 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Copy of performance-test (2)" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -640,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,7 +1003,7 @@
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,9 +1044,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -718,60 +1061,1339 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="78.75" customHeight="1">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="42.75">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
+    <row r="5" spans="1:15" ht="42.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="42.75">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="42.75">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="42.75">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="42.75">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="42.75">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="42.75">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="42.75">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="42.75">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="36.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="42.75">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="42.75">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="42.75">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="42.75">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="42.75">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" ht="42.75">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="42.75">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="9">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" ht="28.5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" ht="42.75">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="42.75">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="9">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" ht="42.75">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="9">
+        <v>9</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="42.75">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="9">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" ht="42.75">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9">
+        <v>11</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="42.75">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="9">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="42.75">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7">
+        <v>13</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="9">
+        <v>13</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="34.5" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" ht="42.75">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" ht="42.75">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" ht="42.75">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" ht="42.75">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="9">
+        <v>4</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" ht="42.75">
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9">
+        <v>5</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" ht="42.75">
+      <c r="C38" s="7">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="9">
+        <v>6</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" ht="42.75">
+      <c r="C39" s="7">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="9">
+        <v>7</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" ht="28.5">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" ht="42.75">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" ht="42.75">
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="9">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" ht="42.75">
+      <c r="C43" s="7">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="9">
+        <v>9</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" ht="42.75">
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" ht="42.75">
+      <c r="C45" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="9">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" ht="42.75">
+      <c r="C46" s="7">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="9">
+        <v>12</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" ht="42.75">
+      <c r="C47" s="7">
+        <v>13</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="9">
+        <v>13</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A32:M32"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2 F2 F4 J4">
+  <conditionalFormatting sqref="F2:F15 J2:J15">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F31 J16:J31">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32 J32">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F47 J33:J47">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
@@ -783,12 +2405,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J15 J17:J31 J33:J47">
       <formula1>"HIGH,NORMAL,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestCase/NHOM6_TESTCASE - NGHIEP.xlsx
+++ b/TestCase/NHOM6_TESTCASE - NGHIEP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -78,78 +78,6 @@
   </si>
   <si>
     <t>Đúng thiết kế, đúng màu, đúng kích thước, cỡ chữ</t>
-  </si>
-  <si>
-    <t>Nút Back</t>
-  </si>
-  <si>
-    <t>Trở về màn hình trước</t>
-  </si>
-  <si>
-    <t>Nút sắp xếp</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút back</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút sắp xếp</t>
-  </si>
-  <si>
-    <t>Danh sách các bài đăng được sắp xếp lại</t>
-  </si>
-  <si>
-    <t>Nút thêm tour</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút thêm tour</t>
-  </si>
-  <si>
-    <t>Chuyển qua màn hình thêm tour</t>
-  </si>
-  <si>
-    <t>Nhấn vào danh sach tour</t>
-  </si>
-  <si>
-    <t>Nhấn 1 lần vào 1 tour trong danh sách</t>
-  </si>
-  <si>
-    <t>Không phản hồi khi nhấn 1 lần</t>
-  </si>
-  <si>
-    <t>Nhấn nhiều lần vào danh sách tour</t>
-  </si>
-  <si>
-    <t>Nhấn nhiều lần vào 1 tour trong danh sách tour</t>
-  </si>
-  <si>
-    <t>Không có phản hồi khi nhấn nhiều lần</t>
-  </si>
-  <si>
-    <t>Nhấn giữ vào 1 tour trong danh sách</t>
-  </si>
-  <si>
-    <t>Nhấn và giữ vào 1 tour trong danh sách trong 3 - 5s</t>
-  </si>
-  <si>
-    <t>Hiện thị menu context, Chỉnh sửa hoặc Xóa</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút tim ở 1 tour trong danh sách</t>
-  </si>
-  <si>
-    <t>Không cho phép nhấp thực hiện ở màn hình chỉnh sửa</t>
-  </si>
-  <si>
-    <t>Nút không thích</t>
-  </si>
-  <si>
-    <t>Nút tim</t>
-  </si>
-  <si>
-    <t>Nhấn vào nút không thích ở 1 tour trong danh sách</t>
-  </si>
-  <si>
-    <t>Không cho phép thực hiện</t>
   </si>
   <si>
     <t>Nút bình luận</t>
@@ -305,9 +233,6 @@
     <t>Không cho phép nhập tới ký tự 256</t>
   </si>
   <si>
-    <t>Xóa tour</t>
-  </si>
-  <si>
     <t>1. Nhấn giữ vào 1 tour trong danh sách
 2. Chọn xóa tour</t>
   </si>
@@ -331,6 +256,96 @@
     <t>1. Nhập giá tiền bằng chữ
 2. Nhập các trường còn lại
 3. Nhấn nút Sửa tour</t>
+  </si>
+  <si>
+    <t>Thêm tour</t>
+  </si>
+  <si>
+    <t>Screen design</t>
+  </si>
+  <si>
+    <t>Edit Post</t>
+  </si>
+  <si>
+    <t>Confirm the correct screen in part as designed</t>
+  </si>
+  <si>
+    <t>The right design, the right color, the right size, font size</t>
+  </si>
+  <si>
+    <t>Back Button</t>
+  </si>
+  <si>
+    <t>Click the back button</t>
+  </si>
+  <si>
+    <t>Return to the previous screen</t>
+  </si>
+  <si>
+    <t>Sort button</t>
+  </si>
+  <si>
+    <t>Click the sort button</t>
+  </si>
+  <si>
+    <t>List postings are rearranged</t>
+  </si>
+  <si>
+    <t>Add button tour</t>
+  </si>
+  <si>
+    <t>Click on the button Add tour</t>
+  </si>
+  <si>
+    <t>Switch the screen add tour</t>
+  </si>
+  <si>
+    <t>Click on the tour listings</t>
+  </si>
+  <si>
+    <t>Press 1 to 1 tour in the list</t>
+  </si>
+  <si>
+    <t>Do not When press 1 times</t>
+  </si>
+  <si>
+    <t>Press several times on the tour list</t>
+  </si>
+  <si>
+    <t>Click several times on 1 tour in the tour list</t>
+  </si>
+  <si>
+    <t>There is no feedback when pressed many times</t>
+  </si>
+  <si>
+    <t>Hold on 1 tour in the list</t>
+  </si>
+  <si>
+    <t>Press and hold the 1 tour in the list for 3-5s</t>
+  </si>
+  <si>
+    <t>Context menu display, edit, or Delete</t>
+  </si>
+  <si>
+    <t>The Like Button</t>
+  </si>
+  <si>
+    <t>Click on the button like in 1 tour in the list</t>
+  </si>
+  <si>
+    <t>Does not allow to click done in the Edit screen</t>
+  </si>
+  <si>
+    <t>The button dislike</t>
+  </si>
+  <si>
+    <t>Click on the button doesn't like in 1 tour in the list</t>
+  </si>
+  <si>
+    <t>Do not allow</t>
+  </si>
+  <si>
+    <t>Delete tour</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,7 +1011,7 @@
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -1061,14 +1076,14 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="78.75" customHeight="1">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
@@ -1077,13 +1092,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>14</v>
@@ -1092,17 +1107,17 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="42.75">
+    <row r="4" spans="1:15" ht="28.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
@@ -1111,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>14</v>
@@ -1123,17 +1138,17 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="42.75">
+    <row r="5" spans="1:15" ht="28.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>13</v>
@@ -1142,10 +1157,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>14</v>
@@ -1154,17 +1169,17 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="42.75">
+    <row r="6" spans="1:15" ht="28.5">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E6" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -1173,10 +1188,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>14</v>
@@ -1185,17 +1200,17 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="42.75">
+    <row r="7" spans="1:15" ht="28.5">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E7" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>13</v>
@@ -1204,10 +1219,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>14</v>
@@ -1216,17 +1231,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="42.75">
+    <row r="8" spans="1:15" ht="28.5">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E8" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
@@ -1235,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>14</v>
@@ -1247,17 +1262,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="42.75">
+    <row r="9" spans="1:15" ht="28.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>13</v>
@@ -1266,10 +1281,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>14</v>
@@ -1278,17 +1293,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="42.75">
+    <row r="10" spans="1:15" ht="28.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E10" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>13</v>
@@ -1297,10 +1312,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>14</v>
@@ -1309,17 +1324,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="42.75">
+    <row r="11" spans="1:15" ht="28.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E11" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>13</v>
@@ -1328,10 +1343,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>14</v>
@@ -1340,17 +1355,17 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="42.75">
+    <row r="12" spans="1:15" ht="28.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E12" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>13</v>
@@ -1359,10 +1374,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>14</v>
@@ -1374,20 +1389,28 @@
     <row r="13" spans="1:15" ht="28.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" s="8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1395,35 +1418,43 @@
     <row r="14" spans="1:15" ht="28.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="8" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="42.75">
+    <row r="15" spans="1:15" ht="28.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>13</v>
@@ -1432,10 +1463,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>14</v>
@@ -1446,7 +1477,7 @@
     </row>
     <row r="16" spans="1:15" ht="36.75" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1463,7 +1494,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="42.75">
+    <row r="17" spans="1:15" ht="28.5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -1479,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>17</v>
@@ -1496,29 +1527,29 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="42.75">
+    <row r="18" spans="1:15" ht="28.5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>14</v>
@@ -1527,29 +1558,29 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="42.75">
+    <row r="19" spans="1:15" ht="28.5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E19" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>14</v>
@@ -1558,29 +1589,29 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="42.75">
+    <row r="20" spans="1:15" ht="28.5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E20" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>14</v>
@@ -1589,29 +1620,29 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="42.75">
+    <row r="21" spans="1:15" ht="28.5">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>14</v>
@@ -1620,29 +1651,29 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="42.75">
+    <row r="22" spans="1:15" ht="28.5">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E22" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>14</v>
@@ -1658,22 +1689,22 @@
         <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>14</v>
@@ -1685,20 +1716,28 @@
     <row r="24" spans="1:15" ht="28.5">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
       <c r="D24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -1706,20 +1745,28 @@
     <row r="25" spans="1:15" ht="42.75">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="H25" s="8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" s="13"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1728,25 +1775,25 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E26" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>14</v>
@@ -1755,29 +1802,29 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="42.75">
+    <row r="27" spans="1:15" ht="28.5">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E27" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>14</v>
@@ -1786,29 +1833,29 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="42.75">
+    <row r="28" spans="1:15" ht="28.5">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E28" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>14</v>
@@ -1821,25 +1868,25 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E29" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>14</v>
@@ -1848,29 +1895,29 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="42.75">
+    <row r="30" spans="1:15" ht="28.5">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E30" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>14</v>
@@ -1879,29 +1926,29 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="42.75">
+    <row r="31" spans="1:15" ht="28.5">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E31" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>14</v>
@@ -1912,7 +1959,7 @@
     </row>
     <row r="32" spans="1:15" ht="34.5" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1929,7 +1976,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="42.75">
+    <row r="33" spans="1:15" ht="28.5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7">
@@ -1945,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>17</v>
@@ -1962,29 +2009,29 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" ht="42.75">
+    <row r="34" spans="1:15" ht="28.5">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E34" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>14</v>
@@ -1993,29 +2040,29 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="42.75">
+    <row r="35" spans="1:15" ht="28.5">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E35" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>14</v>
@@ -2024,29 +2071,29 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="42.75">
+    <row r="36" spans="1:15" ht="28.5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E36" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>14</v>
@@ -2055,27 +2102,27 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="42.75">
+    <row r="37" spans="1:15" ht="28.5">
       <c r="C37" s="7">
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E37" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>14</v>
@@ -2084,27 +2131,27 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="42.75">
+    <row r="38" spans="1:15" ht="28.5">
       <c r="C38" s="7">
         <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E38" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>14</v>
@@ -2118,22 +2165,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E39" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
@@ -2143,64 +2190,80 @@
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="28.5">
-      <c r="C40" s="7"/>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" s="8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K40" s="13"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="42.75">
-      <c r="C41" s="7"/>
+      <c r="C41" s="7">
+        <v>9</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" s="8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K41" s="13"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="42.75">
       <c r="C42" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E42" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>14</v>
@@ -2209,27 +2272,27 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="42.75">
+    <row r="43" spans="1:15" ht="28.5">
       <c r="C43" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E43" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>14</v>
@@ -2238,27 +2301,27 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="42.75">
+    <row r="44" spans="1:15" ht="28.5">
       <c r="C44" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E44" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>14</v>
@@ -2269,25 +2332,25 @@
     </row>
     <row r="45" spans="1:15" ht="42.75">
       <c r="C45" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E45" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>14</v>
@@ -2296,27 +2359,27 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="42.75">
+    <row r="46" spans="1:15" ht="28.5">
       <c r="C46" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E46" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>14</v>
@@ -2325,27 +2388,27 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="42.75">
+    <row r="47" spans="1:15" ht="28.5">
       <c r="C47" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E47" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>14</v>
@@ -2405,7 +2468,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J15 J17:J31 J33:J47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J17:J31 J3:J15 J33:J47">
       <formula1>"HIGH,NORMAL,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>
